--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Inhbb-Acvr2b.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Inhbb-Acvr2b.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.5788186666666667</v>
+        <v>1.372558333333333</v>
       </c>
       <c r="H2">
-        <v>1.736456</v>
+        <v>4.117675</v>
       </c>
       <c r="I2">
-        <v>0.2386021475974085</v>
+        <v>0.3340102211301095</v>
       </c>
       <c r="J2">
-        <v>0.2386021475974086</v>
+        <v>0.3340102211301095</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>1.047294333333333</v>
+        <v>2.110264333333333</v>
       </c>
       <c r="N2">
-        <v>3.141883</v>
+        <v>6.330793</v>
       </c>
       <c r="O2">
-        <v>0.2943898468263134</v>
+        <v>0.3832041185227171</v>
       </c>
       <c r="P2">
-        <v>0.2943898468263134</v>
+        <v>0.3832041185227171</v>
       </c>
       <c r="Q2">
-        <v>0.6061935096275556</v>
+        <v>2.896460896252778</v>
       </c>
       <c r="R2">
-        <v>5.455741586648</v>
+        <v>26.068148066275</v>
       </c>
       <c r="S2">
-        <v>0.07024204968363053</v>
+        <v>0.1279940923657414</v>
       </c>
       <c r="T2">
-        <v>0.07024204968363053</v>
+        <v>0.1279940923657414</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.5788186666666667</v>
+        <v>1.372558333333333</v>
       </c>
       <c r="H3">
-        <v>1.736456</v>
+        <v>4.117675</v>
       </c>
       <c r="I3">
-        <v>0.2386021475974085</v>
+        <v>0.3340102211301095</v>
       </c>
       <c r="J3">
-        <v>0.2386021475974086</v>
+        <v>0.3340102211301095</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>1.56316</v>
       </c>
       <c r="O3">
-        <v>0.1464658082318852</v>
+        <v>0.0946183755984393</v>
       </c>
       <c r="P3">
-        <v>0.1464658082318852</v>
+        <v>0.0946183755984393</v>
       </c>
       <c r="Q3">
-        <v>0.3015953956622222</v>
+        <v>0.7151760947777777</v>
       </c>
       <c r="R3">
-        <v>2.71435856096</v>
+        <v>6.436584852999999</v>
       </c>
       <c r="S3">
-        <v>0.03494705639371799</v>
+        <v>0.03160350455660647</v>
       </c>
       <c r="T3">
-        <v>0.034947056393718</v>
+        <v>0.03160350455660647</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.5788186666666667</v>
+        <v>1.372558333333333</v>
       </c>
       <c r="H4">
-        <v>1.736456</v>
+        <v>4.117675</v>
       </c>
       <c r="I4">
-        <v>0.2386021475974085</v>
+        <v>0.3340102211301095</v>
       </c>
       <c r="J4">
-        <v>0.2386021475974086</v>
+        <v>0.3340102211301095</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.622562</v>
+        <v>2.065388333333333</v>
       </c>
       <c r="N4">
-        <v>4.867686</v>
+        <v>6.196165</v>
       </c>
       <c r="O4">
-        <v>0.4560950665376751</v>
+        <v>0.3750550597762889</v>
       </c>
       <c r="P4">
-        <v>0.4560950665376751</v>
+        <v>0.3750550597762889</v>
       </c>
       <c r="Q4">
-        <v>0.9391691734240001</v>
+        <v>2.834865968486111</v>
       </c>
       <c r="R4">
-        <v>8.452522560816</v>
+        <v>25.513793716375</v>
       </c>
       <c r="S4">
-        <v>0.1088252623844722</v>
+        <v>0.1252722234518447</v>
       </c>
       <c r="T4">
-        <v>0.1088252623844722</v>
+        <v>0.1252722234518447</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>25</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.5788186666666667</v>
+        <v>1.372558333333333</v>
       </c>
       <c r="H5">
-        <v>1.736456</v>
+        <v>4.117675</v>
       </c>
       <c r="I5">
-        <v>0.2386021475974085</v>
+        <v>0.3340102211301095</v>
       </c>
       <c r="J5">
-        <v>0.2386021475974086</v>
+        <v>0.3340102211301095</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.3665986666666667</v>
+        <v>0.8101876666666666</v>
       </c>
       <c r="N5">
-        <v>1.099796</v>
+        <v>2.430563</v>
       </c>
       <c r="O5">
-        <v>0.1030492784041265</v>
+        <v>0.1471224461025547</v>
       </c>
       <c r="P5">
-        <v>0.1030492784041265</v>
+        <v>0.1471224461025547</v>
       </c>
       <c r="Q5">
-        <v>0.2121941514417778</v>
+        <v>1.112029833447222</v>
       </c>
       <c r="R5">
-        <v>1.909747362976</v>
+        <v>10.008268501025</v>
       </c>
       <c r="S5">
-        <v>0.02458777913558784</v>
+        <v>0.04914040075591693</v>
       </c>
       <c r="T5">
-        <v>0.02458777913558784</v>
+        <v>0.04914040075591693</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,40 +791,40 @@
         <v>0.159474</v>
       </c>
       <c r="I6">
-        <v>0.02191293006327205</v>
+        <v>0.01293592767872722</v>
       </c>
       <c r="J6">
-        <v>0.02191293006327205</v>
+        <v>0.01293592767872721</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>1.047294333333333</v>
+        <v>2.110264333333333</v>
       </c>
       <c r="N6">
-        <v>3.141883</v>
+        <v>6.330793</v>
       </c>
       <c r="O6">
-        <v>0.2943898468263134</v>
+        <v>0.3832041185227171</v>
       </c>
       <c r="P6">
-        <v>0.2943898468263134</v>
+        <v>0.3832041185227171</v>
       </c>
       <c r="Q6">
-        <v>0.05567207217133334</v>
+        <v>0.1121774314313333</v>
       </c>
       <c r="R6">
-        <v>0.501048649542</v>
+        <v>1.009596882882</v>
       </c>
       <c r="S6">
-        <v>0.006450944124842376</v>
+        <v>0.00495710076340028</v>
       </c>
       <c r="T6">
-        <v>0.006450944124842378</v>
+        <v>0.00495710076340028</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>0.159474</v>
       </c>
       <c r="I7">
-        <v>0.02191293006327205</v>
+        <v>0.01293592767872722</v>
       </c>
       <c r="J7">
-        <v>0.02191293006327205</v>
+        <v>0.01293592767872721</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>1.56316</v>
       </c>
       <c r="O7">
-        <v>0.1464658082318852</v>
+        <v>0.0946183755984393</v>
       </c>
       <c r="P7">
-        <v>0.1464658082318852</v>
+        <v>0.0946183755984393</v>
       </c>
       <c r="Q7">
         <v>0.02769815309333333</v>
@@ -883,10 +883,10 @@
         <v>0.24928337784</v>
       </c>
       <c r="S7">
-        <v>0.003209495012445915</v>
+        <v>0.001223976463820059</v>
       </c>
       <c r="T7">
-        <v>0.003209495012445915</v>
+        <v>0.001223976463820059</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>0.159474</v>
       </c>
       <c r="I8">
-        <v>0.02191293006327205</v>
+        <v>0.01293592767872722</v>
       </c>
       <c r="J8">
-        <v>0.02191293006327205</v>
+        <v>0.01293592767872721</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.622562</v>
+        <v>2.065388333333333</v>
       </c>
       <c r="N8">
-        <v>4.867686</v>
+        <v>6.196165</v>
       </c>
       <c r="O8">
-        <v>0.4560950665376751</v>
+        <v>0.3750550597762889</v>
       </c>
       <c r="P8">
-        <v>0.4560950665376751</v>
+        <v>0.3750550597762889</v>
       </c>
       <c r="Q8">
-        <v>0.08625215079600002</v>
+        <v>0.1097919130233333</v>
       </c>
       <c r="R8">
-        <v>0.776269357164</v>
+        <v>0.98812721721</v>
       </c>
       <c r="S8">
-        <v>0.009994379295243485</v>
+        <v>0.004851685128806786</v>
       </c>
       <c r="T8">
-        <v>0.009994379295243487</v>
+        <v>0.004851685128806785</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>0.159474</v>
       </c>
       <c r="I9">
-        <v>0.02191293006327205</v>
+        <v>0.01293592767872722</v>
       </c>
       <c r="J9">
-        <v>0.02191293006327205</v>
+        <v>0.01293592767872721</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.3665986666666667</v>
+        <v>0.8101876666666666</v>
       </c>
       <c r="N9">
-        <v>1.099796</v>
+        <v>2.430563</v>
       </c>
       <c r="O9">
-        <v>0.1030492784041265</v>
+        <v>0.1471224461025547</v>
       </c>
       <c r="P9">
-        <v>0.1030492784041265</v>
+        <v>0.1471224461025547</v>
       </c>
       <c r="Q9">
-        <v>0.01948765192266667</v>
+        <v>0.04306795598466667</v>
       </c>
       <c r="R9">
-        <v>0.175388867304</v>
+        <v>0.387611603862</v>
       </c>
       <c r="S9">
-        <v>0.002258111630740275</v>
+        <v>0.001903165322700091</v>
       </c>
       <c r="T9">
-        <v>0.002258111630740275</v>
+        <v>0.001903165322700091</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,46 +1033,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.793897</v>
+        <v>2.683614</v>
       </c>
       <c r="H10">
-        <v>5.381691</v>
+        <v>8.050841999999999</v>
       </c>
       <c r="I10">
-        <v>0.7394849223393194</v>
+        <v>0.6530538511911632</v>
       </c>
       <c r="J10">
-        <v>0.7394849223393194</v>
+        <v>0.6530538511911632</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>1.047294333333333</v>
+        <v>2.110264333333333</v>
       </c>
       <c r="N10">
-        <v>3.141883</v>
+        <v>6.330793</v>
       </c>
       <c r="O10">
-        <v>0.2943898468263134</v>
+        <v>0.3832041185227171</v>
       </c>
       <c r="P10">
-        <v>0.2943898468263134</v>
+        <v>0.3832041185227171</v>
       </c>
       <c r="Q10">
-        <v>1.878738162683667</v>
+        <v>5.663134908633999</v>
       </c>
       <c r="R10">
-        <v>16.908643464153</v>
+        <v>50.968214177706</v>
       </c>
       <c r="S10">
-        <v>0.2176968530178405</v>
+        <v>0.2502529253935754</v>
       </c>
       <c r="T10">
-        <v>0.2176968530178405</v>
+        <v>0.2502529253935754</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.793897</v>
+        <v>2.683614</v>
       </c>
       <c r="H11">
-        <v>5.381691</v>
+        <v>8.050841999999999</v>
       </c>
       <c r="I11">
-        <v>0.7394849223393194</v>
+        <v>0.6530538511911632</v>
       </c>
       <c r="J11">
-        <v>0.7394849223393194</v>
+        <v>0.6530538511911632</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>1.56316</v>
       </c>
       <c r="O11">
-        <v>0.1464658082318852</v>
+        <v>0.0946183755984393</v>
       </c>
       <c r="P11">
-        <v>0.1464658082318852</v>
+        <v>0.0946183755984393</v>
       </c>
       <c r="Q11">
-        <v>0.9347160115066666</v>
+        <v>1.39830602008</v>
       </c>
       <c r="R11">
-        <v>8.412444103559999</v>
+        <v>12.58475418072</v>
       </c>
       <c r="S11">
-        <v>0.1083092568257212</v>
+        <v>0.06179089457801277</v>
       </c>
       <c r="T11">
-        <v>0.1083092568257212</v>
+        <v>0.06179089457801277</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.793897</v>
+        <v>2.683614</v>
       </c>
       <c r="H12">
-        <v>5.381691</v>
+        <v>8.050841999999999</v>
       </c>
       <c r="I12">
-        <v>0.7394849223393194</v>
+        <v>0.6530538511911632</v>
       </c>
       <c r="J12">
-        <v>0.7394849223393194</v>
+        <v>0.6530538511911632</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.622562</v>
+        <v>2.065388333333333</v>
       </c>
       <c r="N12">
-        <v>4.867686</v>
+        <v>6.196165</v>
       </c>
       <c r="O12">
-        <v>0.4560950665376751</v>
+        <v>0.3750550597762889</v>
       </c>
       <c r="P12">
-        <v>0.4560950665376751</v>
+        <v>0.3750550597762889</v>
       </c>
       <c r="Q12">
-        <v>2.910709104114</v>
+        <v>5.54270504677</v>
       </c>
       <c r="R12">
-        <v>26.196381937026</v>
+        <v>49.88434542093</v>
       </c>
       <c r="S12">
-        <v>0.3372754248579594</v>
+        <v>0.2449311511956374</v>
       </c>
       <c r="T12">
-        <v>0.3372754248579594</v>
+        <v>0.2449311511956374</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.793897</v>
+        <v>2.683614</v>
       </c>
       <c r="H13">
-        <v>5.381691</v>
+        <v>8.050841999999999</v>
       </c>
       <c r="I13">
-        <v>0.7394849223393194</v>
+        <v>0.6530538511911632</v>
       </c>
       <c r="J13">
-        <v>0.7394849223393194</v>
+        <v>0.6530538511911632</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.3665986666666667</v>
+        <v>0.8101876666666666</v>
       </c>
       <c r="N13">
-        <v>1.099796</v>
+        <v>2.430563</v>
       </c>
       <c r="O13">
-        <v>0.1030492784041265</v>
+        <v>0.1471224461025547</v>
       </c>
       <c r="P13">
-        <v>0.1030492784041265</v>
+        <v>0.1471224461025547</v>
       </c>
       <c r="Q13">
-        <v>0.6576402483373334</v>
+        <v>2.174230964894</v>
       </c>
       <c r="R13">
-        <v>5.918762235036</v>
+        <v>19.568078684046</v>
       </c>
       <c r="S13">
-        <v>0.07620338763779839</v>
+        <v>0.0960788800239377</v>
       </c>
       <c r="T13">
-        <v>0.07620338763779839</v>
+        <v>0.0960788800239377</v>
       </c>
     </row>
   </sheetData>
